--- a/app/data/mould_new/InputTableC.xlsx
+++ b/app/data/mould_new/InputTableC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaglezpf/Mega/OMNILab/强生医疗/Project/round1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaglezpf/Mega/OMNILab/强生医疗/onlineTest/round1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987BFEDB-AAE1-0D4A-BF4E-B06DA8932DEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F71B58-E659-E948-8F35-AA9F741B2CF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="3300" windowWidth="27840" windowHeight="16260" xr2:uid="{CABFA9CA-4B72-4044-8863-FD1C2D8A657B}"/>
   </bookViews>
@@ -474,7 +474,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -497,6 +497,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -817,15 +820,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1A9809-0AD5-E147-92D8-DD39CDA2CDA1}">
   <dimension ref="A1:AM70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C91" sqref="C66:C91"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AM5" sqref="AM5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
@@ -857,7 +861,7 @@
       <c r="B1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>82</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -976,8 +980,8 @@
       <c r="B2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="4">
-        <v>5000</v>
+      <c r="C2" s="8">
+        <v>2500</v>
       </c>
       <c r="D2" s="4">
         <v>1.2</v>
@@ -1000,14 +1004,14 @@
       </c>
       <c r="J2" s="2">
         <f>C2*G2/1000</f>
-        <v>0.9</v>
+        <v>0.45</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
       </c>
       <c r="L2" s="2">
         <f>C2*G2*(S2*Q2 + W2*V2)*0.08</f>
-        <v>24336</v>
+        <v>12168</v>
       </c>
       <c r="M2" s="2">
         <v>750</v>
@@ -1033,7 +1037,7 @@
       </c>
       <c r="T2" s="2">
         <f>C2*G2*S2</f>
-        <v>540</v>
+        <v>270</v>
       </c>
       <c r="U2" s="2">
         <v>250</v>
@@ -1046,15 +1050,15 @@
       </c>
       <c r="X2" s="2">
         <f>C2*G2*W2</f>
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" ref="Y2:Y33" si="0">C2*G2</f>
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="Z2" s="2">
         <f>Y2</f>
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="AA2" s="2">
         <f>Z2-Y2</f>
@@ -1078,11 +1082,11 @@
       </c>
       <c r="AF2" s="5">
         <f t="shared" ref="AF2:AF33" si="3">J2</f>
-        <v>0.9</v>
+        <v>0.45</v>
       </c>
       <c r="AG2" s="5">
         <f t="shared" ref="AG2:AG33" si="4">L2</f>
-        <v>24336</v>
+        <v>12168</v>
       </c>
       <c r="AH2" s="5">
         <f t="shared" ref="AH2:AH33" si="5">M2</f>
@@ -1097,13 +1101,13 @@
         <v>250</v>
       </c>
       <c r="AK2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -1113,8 +1117,8 @@
       <c r="B3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="4">
-        <v>4500</v>
+      <c r="C3" s="8">
+        <v>2250</v>
       </c>
       <c r="D3" s="4">
         <v>1.2</v>
@@ -1137,14 +1141,14 @@
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J66" si="9">C3*G3/1000</f>
-        <v>0.81</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" ref="L3:L66" si="10">C3*G3*(S3*Q3 + W3*V3)*0.08</f>
-        <v>21902.400000000001</v>
+        <v>10951.2</v>
       </c>
       <c r="M3" s="2">
         <v>750</v>
@@ -1170,7 +1174,7 @@
       </c>
       <c r="T3" s="2">
         <f t="shared" ref="T3:T66" si="12">C3*G3*S3</f>
-        <v>486</v>
+        <v>243</v>
       </c>
       <c r="U3" s="2">
         <v>250</v>
@@ -1183,15 +1187,15 @@
       </c>
       <c r="X3" s="2">
         <f t="shared" ref="X3:X66" si="13">C3*G3*W3</f>
-        <v>324</v>
+        <v>162</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="0"/>
-        <v>810</v>
+        <v>405</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" ref="Z3:Z66" si="14">Y3</f>
-        <v>810</v>
+        <v>405</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" ref="AA3:AA66" si="15">Z3-Y3</f>
@@ -1215,11 +1219,11 @@
       </c>
       <c r="AF3" s="5">
         <f t="shared" si="3"/>
-        <v>0.81</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="AG3" s="5">
         <f t="shared" si="4"/>
-        <v>21902.400000000001</v>
+        <v>10951.2</v>
       </c>
       <c r="AH3" s="5">
         <f t="shared" si="5"/>
@@ -1234,13 +1238,13 @@
         <v>250</v>
       </c>
       <c r="AK3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -1250,8 +1254,8 @@
       <c r="B4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="4">
-        <v>3000</v>
+      <c r="C4" s="8">
+        <v>1500</v>
       </c>
       <c r="D4" s="4">
         <v>1.2</v>
@@ -1274,14 +1278,14 @@
       </c>
       <c r="J4" s="2">
         <f t="shared" si="9"/>
-        <v>0.54</v>
+        <v>0.27</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="10"/>
-        <v>14601.6</v>
+        <v>7300.8</v>
       </c>
       <c r="M4" s="2">
         <v>750</v>
@@ -1307,7 +1311,7 @@
       </c>
       <c r="T4" s="2">
         <f t="shared" si="12"/>
-        <v>324</v>
+        <v>162</v>
       </c>
       <c r="U4" s="2">
         <v>250</v>
@@ -1320,15 +1324,15 @@
       </c>
       <c r="X4" s="2">
         <f t="shared" si="13"/>
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="0"/>
-        <v>540</v>
+        <v>270</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="14"/>
-        <v>540</v>
+        <v>270</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="15"/>
@@ -1352,11 +1356,11 @@
       </c>
       <c r="AF4" s="5">
         <f t="shared" si="3"/>
-        <v>0.54</v>
+        <v>0.27</v>
       </c>
       <c r="AG4" s="5">
         <f t="shared" si="4"/>
-        <v>14601.6</v>
+        <v>7300.8</v>
       </c>
       <c r="AH4" s="5">
         <f t="shared" si="5"/>
@@ -1377,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="AM4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:39">
@@ -1387,8 +1391,8 @@
       <c r="B5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="4">
-        <v>2500</v>
+      <c r="C5" s="8">
+        <v>1250</v>
       </c>
       <c r="D5" s="4">
         <v>1.2</v>
@@ -1411,14 +1415,14 @@
       </c>
       <c r="J5" s="2">
         <f t="shared" si="9"/>
-        <v>0.45</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="10"/>
-        <v>12168</v>
+        <v>6084</v>
       </c>
       <c r="M5" s="2">
         <v>750</v>
@@ -1444,7 +1448,7 @@
       </c>
       <c r="T5" s="2">
         <f t="shared" si="12"/>
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="U5" s="2">
         <v>250</v>
@@ -1457,15 +1461,15 @@
       </c>
       <c r="X5" s="2">
         <f t="shared" si="13"/>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>225</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="14"/>
-        <v>450</v>
+        <v>225</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="15"/>
@@ -1489,11 +1493,11 @@
       </c>
       <c r="AF5" s="5">
         <f t="shared" si="3"/>
-        <v>0.45</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="AG5" s="5">
         <f t="shared" si="4"/>
-        <v>12168</v>
+        <v>6084</v>
       </c>
       <c r="AH5" s="5">
         <f t="shared" si="5"/>
@@ -1524,8 +1528,8 @@
       <c r="B6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="4">
-        <v>2000</v>
+      <c r="C6" s="8">
+        <v>1000</v>
       </c>
       <c r="D6" s="4">
         <v>1.2</v>
@@ -1548,14 +1552,14 @@
       </c>
       <c r="J6" s="2">
         <f t="shared" si="9"/>
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="10"/>
-        <v>9734.4</v>
+        <v>4867.2</v>
       </c>
       <c r="M6" s="2">
         <v>750</v>
@@ -1581,7 +1585,7 @@
       </c>
       <c r="T6" s="2">
         <f t="shared" si="12"/>
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="U6" s="2">
         <v>250</v>
@@ -1594,15 +1598,15 @@
       </c>
       <c r="X6" s="2">
         <f t="shared" si="13"/>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="Y6" s="2">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="Z6" s="2">
         <f t="shared" si="14"/>
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="AA6" s="2">
         <f t="shared" si="15"/>
@@ -1626,11 +1630,11 @@
       </c>
       <c r="AF6" s="5">
         <f t="shared" si="3"/>
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
       <c r="AG6" s="5">
         <f t="shared" si="4"/>
-        <v>9734.4</v>
+        <v>4867.2</v>
       </c>
       <c r="AH6" s="5">
         <f t="shared" si="5"/>
@@ -1661,8 +1665,8 @@
       <c r="B7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="4">
-        <v>1500</v>
+      <c r="C7" s="8">
+        <v>750</v>
       </c>
       <c r="D7" s="4">
         <v>1.2</v>
@@ -1685,14 +1689,14 @@
       </c>
       <c r="J7" s="2">
         <f t="shared" si="9"/>
-        <v>0.27</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="10"/>
-        <v>7300.8</v>
+        <v>3650.4</v>
       </c>
       <c r="M7" s="2">
         <v>750</v>
@@ -1718,7 +1722,7 @@
       </c>
       <c r="T7" s="2">
         <f t="shared" si="12"/>
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="U7" s="2">
         <v>250</v>
@@ -1731,15 +1735,15 @@
       </c>
       <c r="X7" s="2">
         <f t="shared" si="13"/>
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="Y7" s="2">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" si="14"/>
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="AA7" s="2">
         <f t="shared" si="15"/>
@@ -1763,11 +1767,11 @@
       </c>
       <c r="AF7" s="5">
         <f t="shared" si="3"/>
-        <v>0.27</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="AG7" s="5">
         <f t="shared" si="4"/>
-        <v>7300.8</v>
+        <v>3650.4</v>
       </c>
       <c r="AH7" s="5">
         <f t="shared" si="5"/>
@@ -1798,8 +1802,8 @@
       <c r="B8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="4">
-        <v>1500</v>
+      <c r="C8" s="8">
+        <v>750</v>
       </c>
       <c r="D8" s="4">
         <v>1.2</v>
@@ -1822,14 +1826,14 @@
       </c>
       <c r="J8" s="2">
         <f t="shared" si="9"/>
-        <v>0.27</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="10"/>
-        <v>7300.8</v>
+        <v>3650.4</v>
       </c>
       <c r="M8" s="2">
         <v>750</v>
@@ -1855,7 +1859,7 @@
       </c>
       <c r="T8" s="2">
         <f t="shared" si="12"/>
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="U8" s="2">
         <v>250</v>
@@ -1868,15 +1872,15 @@
       </c>
       <c r="X8" s="2">
         <f t="shared" si="13"/>
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="14"/>
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="15"/>
@@ -1900,11 +1904,11 @@
       </c>
       <c r="AF8" s="5">
         <f t="shared" si="3"/>
-        <v>0.27</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="AG8" s="5">
         <f t="shared" si="4"/>
-        <v>7300.8</v>
+        <v>3650.4</v>
       </c>
       <c r="AH8" s="5">
         <f t="shared" si="5"/>
@@ -1935,8 +1939,8 @@
       <c r="B9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="4">
-        <v>1500</v>
+      <c r="C9" s="8">
+        <v>750</v>
       </c>
       <c r="D9" s="4">
         <v>1.2</v>
@@ -1959,14 +1963,14 @@
       </c>
       <c r="J9" s="2">
         <f t="shared" si="9"/>
-        <v>0.27</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="10"/>
-        <v>7300.8</v>
+        <v>3650.4</v>
       </c>
       <c r="M9" s="2">
         <v>750</v>
@@ -1992,7 +1996,7 @@
       </c>
       <c r="T9" s="2">
         <f t="shared" si="12"/>
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="U9" s="2">
         <v>250</v>
@@ -2005,15 +2009,15 @@
       </c>
       <c r="X9" s="2">
         <f t="shared" si="13"/>
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" si="14"/>
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="AA9" s="2">
         <f t="shared" si="15"/>
@@ -2037,11 +2041,11 @@
       </c>
       <c r="AF9" s="5">
         <f t="shared" si="3"/>
-        <v>0.27</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="AG9" s="5">
         <f t="shared" si="4"/>
-        <v>7300.8</v>
+        <v>3650.4</v>
       </c>
       <c r="AH9" s="5">
         <f t="shared" si="5"/>
@@ -2072,8 +2076,8 @@
       <c r="B10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="4">
-        <v>1500</v>
+      <c r="C10" s="8">
+        <v>750</v>
       </c>
       <c r="D10" s="4">
         <v>1.2</v>
@@ -2096,14 +2100,14 @@
       </c>
       <c r="J10" s="2">
         <f t="shared" si="9"/>
-        <v>0.27</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="10"/>
-        <v>7300.8</v>
+        <v>3650.4</v>
       </c>
       <c r="M10" s="2">
         <v>750</v>
@@ -2129,7 +2133,7 @@
       </c>
       <c r="T10" s="2">
         <f t="shared" si="12"/>
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="U10" s="2">
         <v>250</v>
@@ -2142,15 +2146,15 @@
       </c>
       <c r="X10" s="2">
         <f t="shared" si="13"/>
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="Y10" s="2">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="14"/>
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="AA10" s="2">
         <f t="shared" si="15"/>
@@ -2174,11 +2178,11 @@
       </c>
       <c r="AF10" s="5">
         <f t="shared" si="3"/>
-        <v>0.27</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="AG10" s="5">
         <f t="shared" si="4"/>
-        <v>7300.8</v>
+        <v>3650.4</v>
       </c>
       <c r="AH10" s="5">
         <f t="shared" si="5"/>
@@ -2209,8 +2213,8 @@
       <c r="B11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="4">
-        <v>1500</v>
+      <c r="C11" s="8">
+        <v>750</v>
       </c>
       <c r="D11" s="4">
         <v>1.2</v>
@@ -2233,14 +2237,14 @@
       </c>
       <c r="J11" s="2">
         <f t="shared" si="9"/>
-        <v>0.27</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="10"/>
-        <v>7300.8</v>
+        <v>3650.4</v>
       </c>
       <c r="M11" s="2">
         <v>750</v>
@@ -2266,7 +2270,7 @@
       </c>
       <c r="T11" s="2">
         <f t="shared" si="12"/>
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="U11" s="2">
         <v>250</v>
@@ -2279,15 +2283,15 @@
       </c>
       <c r="X11" s="2">
         <f t="shared" si="13"/>
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="Y11" s="2">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="Z11" s="2">
         <f t="shared" si="14"/>
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="AA11" s="2">
         <f t="shared" si="15"/>
@@ -2311,11 +2315,11 @@
       </c>
       <c r="AF11" s="5">
         <f t="shared" si="3"/>
-        <v>0.27</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="AG11" s="5">
         <f t="shared" si="4"/>
-        <v>7300.8</v>
+        <v>3650.4</v>
       </c>
       <c r="AH11" s="5">
         <f t="shared" si="5"/>
@@ -2346,8 +2350,8 @@
       <c r="B12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="4">
-        <v>1500</v>
+      <c r="C12" s="8">
+        <v>750</v>
       </c>
       <c r="D12" s="4">
         <v>1.2</v>
@@ -2370,14 +2374,14 @@
       </c>
       <c r="J12" s="2">
         <f t="shared" si="9"/>
-        <v>0.27</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="10"/>
-        <v>7300.8</v>
+        <v>3650.4</v>
       </c>
       <c r="M12" s="2">
         <v>750</v>
@@ -2403,7 +2407,7 @@
       </c>
       <c r="T12" s="2">
         <f t="shared" si="12"/>
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="U12" s="2">
         <v>250</v>
@@ -2416,15 +2420,15 @@
       </c>
       <c r="X12" s="2">
         <f t="shared" si="13"/>
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="Y12" s="2">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="Z12" s="2">
         <f t="shared" si="14"/>
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="AA12" s="2">
         <f t="shared" si="15"/>
@@ -2448,11 +2452,11 @@
       </c>
       <c r="AF12" s="5">
         <f t="shared" si="3"/>
-        <v>0.27</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="AG12" s="5">
         <f t="shared" si="4"/>
-        <v>7300.8</v>
+        <v>3650.4</v>
       </c>
       <c r="AH12" s="5">
         <f t="shared" si="5"/>
@@ -2483,8 +2487,8 @@
       <c r="B13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="4">
-        <v>1200</v>
+      <c r="C13" s="8">
+        <v>600</v>
       </c>
       <c r="D13" s="4">
         <v>1.2</v>
@@ -2507,14 +2511,14 @@
       </c>
       <c r="J13" s="2">
         <f t="shared" si="9"/>
-        <v>0.216</v>
+        <v>0.108</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="10"/>
-        <v>5840.64</v>
+        <v>2920.32</v>
       </c>
       <c r="M13" s="2">
         <v>750</v>
@@ -2540,7 +2544,7 @@
       </c>
       <c r="T13" s="2">
         <f t="shared" si="12"/>
-        <v>129.6</v>
+        <v>64.8</v>
       </c>
       <c r="U13" s="2">
         <v>250</v>
@@ -2553,15 +2557,15 @@
       </c>
       <c r="X13" s="2">
         <f t="shared" si="13"/>
-        <v>86.4</v>
+        <v>43.2</v>
       </c>
       <c r="Y13" s="2">
         <f t="shared" si="0"/>
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="Z13" s="2">
         <f t="shared" si="14"/>
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="AA13" s="2">
         <f t="shared" si="15"/>
@@ -2585,11 +2589,11 @@
       </c>
       <c r="AF13" s="5">
         <f t="shared" si="3"/>
-        <v>0.216</v>
+        <v>0.108</v>
       </c>
       <c r="AG13" s="5">
         <f t="shared" si="4"/>
-        <v>5840.64</v>
+        <v>2920.32</v>
       </c>
       <c r="AH13" s="5">
         <f t="shared" si="5"/>
@@ -2620,8 +2624,8 @@
       <c r="B14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="4">
-        <v>1200</v>
+      <c r="C14" s="8">
+        <v>600</v>
       </c>
       <c r="D14" s="4">
         <v>1.2</v>
@@ -2644,14 +2648,14 @@
       </c>
       <c r="J14" s="2">
         <f t="shared" si="9"/>
-        <v>0.216</v>
+        <v>0.108</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="10"/>
-        <v>5840.64</v>
+        <v>2920.32</v>
       </c>
       <c r="M14" s="2">
         <v>750</v>
@@ -2677,7 +2681,7 @@
       </c>
       <c r="T14" s="2">
         <f t="shared" si="12"/>
-        <v>129.6</v>
+        <v>64.8</v>
       </c>
       <c r="U14" s="2">
         <v>250</v>
@@ -2690,15 +2694,15 @@
       </c>
       <c r="X14" s="2">
         <f t="shared" si="13"/>
-        <v>86.4</v>
+        <v>43.2</v>
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="0"/>
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="14"/>
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="AA14" s="2">
         <f t="shared" si="15"/>
@@ -2722,11 +2726,11 @@
       </c>
       <c r="AF14" s="5">
         <f t="shared" si="3"/>
-        <v>0.216</v>
+        <v>0.108</v>
       </c>
       <c r="AG14" s="5">
         <f t="shared" si="4"/>
-        <v>5840.64</v>
+        <v>2920.32</v>
       </c>
       <c r="AH14" s="5">
         <f t="shared" si="5"/>
@@ -2757,8 +2761,8 @@
       <c r="B15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="4">
-        <v>1200</v>
+      <c r="C15" s="8">
+        <v>600</v>
       </c>
       <c r="D15" s="4">
         <v>1.2</v>
@@ -2781,14 +2785,14 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="9"/>
-        <v>0.216</v>
+        <v>0.108</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="10"/>
-        <v>5840.64</v>
+        <v>2920.32</v>
       </c>
       <c r="M15" s="2">
         <v>750</v>
@@ -2814,7 +2818,7 @@
       </c>
       <c r="T15" s="2">
         <f t="shared" si="12"/>
-        <v>129.6</v>
+        <v>64.8</v>
       </c>
       <c r="U15" s="2">
         <v>250</v>
@@ -2827,15 +2831,15 @@
       </c>
       <c r="X15" s="2">
         <f t="shared" si="13"/>
-        <v>86.4</v>
+        <v>43.2</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="0"/>
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="14"/>
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="AA15" s="2">
         <f t="shared" si="15"/>
@@ -2859,11 +2863,11 @@
       </c>
       <c r="AF15" s="5">
         <f t="shared" si="3"/>
-        <v>0.216</v>
+        <v>0.108</v>
       </c>
       <c r="AG15" s="5">
         <f t="shared" si="4"/>
-        <v>5840.64</v>
+        <v>2920.32</v>
       </c>
       <c r="AH15" s="5">
         <f t="shared" si="5"/>
@@ -2894,8 +2898,8 @@
       <c r="B16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="4">
-        <v>1000</v>
+      <c r="C16" s="8">
+        <v>500</v>
       </c>
       <c r="D16" s="4">
         <v>1.2</v>
@@ -2918,14 +2922,14 @@
       </c>
       <c r="J16" s="2">
         <f t="shared" si="9"/>
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="10"/>
-        <v>4867.2</v>
+        <v>2433.6</v>
       </c>
       <c r="M16" s="2">
         <v>750</v>
@@ -2951,7 +2955,7 @@
       </c>
       <c r="T16" s="2">
         <f t="shared" si="12"/>
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="U16" s="2">
         <v>250</v>
@@ -2964,15 +2968,15 @@
       </c>
       <c r="X16" s="2">
         <f t="shared" si="13"/>
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Z16" s="2">
         <f t="shared" si="14"/>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="AA16" s="2">
         <f t="shared" si="15"/>
@@ -2996,11 +3000,11 @@
       </c>
       <c r="AF16" s="5">
         <f t="shared" si="3"/>
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="AG16" s="5">
         <f t="shared" si="4"/>
-        <v>4867.2</v>
+        <v>2433.6</v>
       </c>
       <c r="AH16" s="5">
         <f t="shared" si="5"/>
@@ -3031,8 +3035,8 @@
       <c r="B17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="4">
-        <v>1000</v>
+      <c r="C17" s="8">
+        <v>500</v>
       </c>
       <c r="D17" s="4">
         <v>1.2</v>
@@ -3055,14 +3059,14 @@
       </c>
       <c r="J17" s="2">
         <f t="shared" si="9"/>
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="10"/>
-        <v>4867.2</v>
+        <v>2433.6</v>
       </c>
       <c r="M17" s="2">
         <v>750</v>
@@ -3088,7 +3092,7 @@
       </c>
       <c r="T17" s="2">
         <f t="shared" si="12"/>
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="U17" s="2">
         <v>250</v>
@@ -3101,15 +3105,15 @@
       </c>
       <c r="X17" s="2">
         <f t="shared" si="13"/>
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Z17" s="2">
         <f t="shared" si="14"/>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="AA17" s="2">
         <f t="shared" si="15"/>
@@ -3133,11 +3137,11 @@
       </c>
       <c r="AF17" s="5">
         <f t="shared" si="3"/>
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="AG17" s="5">
         <f t="shared" si="4"/>
-        <v>4867.2</v>
+        <v>2433.6</v>
       </c>
       <c r="AH17" s="5">
         <f t="shared" si="5"/>
@@ -3168,8 +3172,8 @@
       <c r="B18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="4">
-        <v>1000</v>
+      <c r="C18" s="8">
+        <v>500</v>
       </c>
       <c r="D18" s="4">
         <v>1.2</v>
@@ -3192,14 +3196,14 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" si="9"/>
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="10"/>
-        <v>4867.2</v>
+        <v>2433.6</v>
       </c>
       <c r="M18" s="2">
         <v>750</v>
@@ -3225,7 +3229,7 @@
       </c>
       <c r="T18" s="2">
         <f t="shared" si="12"/>
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="U18" s="2">
         <v>250</v>
@@ -3238,15 +3242,15 @@
       </c>
       <c r="X18" s="2">
         <f t="shared" si="13"/>
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="Y18" s="2">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Z18" s="2">
         <f t="shared" si="14"/>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="AA18" s="2">
         <f t="shared" si="15"/>
@@ -3270,11 +3274,11 @@
       </c>
       <c r="AF18" s="5">
         <f t="shared" si="3"/>
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="AG18" s="5">
         <f t="shared" si="4"/>
-        <v>4867.2</v>
+        <v>2433.6</v>
       </c>
       <c r="AH18" s="5">
         <f t="shared" si="5"/>
@@ -3305,8 +3309,8 @@
       <c r="B19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="4">
-        <v>1000</v>
+      <c r="C19" s="8">
+        <v>500</v>
       </c>
       <c r="D19" s="4">
         <v>1.2</v>
@@ -3329,14 +3333,14 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" si="9"/>
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="10"/>
-        <v>4867.2</v>
+        <v>2433.6</v>
       </c>
       <c r="M19" s="2">
         <v>750</v>
@@ -3362,7 +3366,7 @@
       </c>
       <c r="T19" s="2">
         <f t="shared" si="12"/>
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="U19" s="2">
         <v>250</v>
@@ -3375,15 +3379,15 @@
       </c>
       <c r="X19" s="2">
         <f t="shared" si="13"/>
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="Y19" s="2">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Z19" s="2">
         <f t="shared" si="14"/>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="AA19" s="2">
         <f t="shared" si="15"/>
@@ -3407,11 +3411,11 @@
       </c>
       <c r="AF19" s="5">
         <f t="shared" si="3"/>
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="AG19" s="5">
         <f t="shared" si="4"/>
-        <v>4867.2</v>
+        <v>2433.6</v>
       </c>
       <c r="AH19" s="5">
         <f t="shared" si="5"/>
@@ -3442,8 +3446,8 @@
       <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="4">
-        <v>1000</v>
+      <c r="C20" s="8">
+        <v>500</v>
       </c>
       <c r="D20" s="4">
         <v>1.2</v>
@@ -3466,14 +3470,14 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" si="9"/>
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="10"/>
-        <v>4867.2</v>
+        <v>2433.6</v>
       </c>
       <c r="M20" s="2">
         <v>750</v>
@@ -3499,7 +3503,7 @@
       </c>
       <c r="T20" s="2">
         <f t="shared" si="12"/>
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="U20" s="2">
         <v>250</v>
@@ -3512,15 +3516,15 @@
       </c>
       <c r="X20" s="2">
         <f t="shared" si="13"/>
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="Y20" s="2">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Z20" s="2">
         <f t="shared" si="14"/>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="AA20" s="2">
         <f t="shared" si="15"/>
@@ -3544,11 +3548,11 @@
       </c>
       <c r="AF20" s="5">
         <f t="shared" si="3"/>
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="AG20" s="5">
         <f t="shared" si="4"/>
-        <v>4867.2</v>
+        <v>2433.6</v>
       </c>
       <c r="AH20" s="5">
         <f t="shared" si="5"/>
@@ -3579,8 +3583,8 @@
       <c r="B21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="4">
-        <v>998</v>
+      <c r="C21" s="8">
+        <v>499</v>
       </c>
       <c r="D21" s="4">
         <v>1.2</v>
@@ -3603,14 +3607,14 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" si="9"/>
-        <v>0.25948000000000004</v>
+        <v>0.12974000000000002</v>
       </c>
       <c r="K21" s="2">
         <v>0</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="10"/>
-        <v>7016.3392000000003</v>
+        <v>3508.1696000000002</v>
       </c>
       <c r="M21" s="2">
         <v>750</v>
@@ -3636,7 +3640,7 @@
       </c>
       <c r="T21" s="2">
         <f t="shared" si="12"/>
-        <v>155.68800000000002</v>
+        <v>77.844000000000008</v>
       </c>
       <c r="U21" s="2">
         <v>250</v>
@@ -3649,15 +3653,15 @@
       </c>
       <c r="X21" s="2">
         <f t="shared" si="13"/>
-        <v>103.79200000000002</v>
+        <v>51.896000000000008</v>
       </c>
       <c r="Y21" s="2">
         <f t="shared" si="0"/>
-        <v>259.48</v>
+        <v>129.74</v>
       </c>
       <c r="Z21" s="2">
         <f t="shared" si="14"/>
-        <v>259.48</v>
+        <v>129.74</v>
       </c>
       <c r="AA21" s="2">
         <f t="shared" si="15"/>
@@ -3681,11 +3685,11 @@
       </c>
       <c r="AF21" s="5">
         <f t="shared" si="3"/>
-        <v>0.25948000000000004</v>
+        <v>0.12974000000000002</v>
       </c>
       <c r="AG21" s="5">
         <f t="shared" si="4"/>
-        <v>7016.3392000000003</v>
+        <v>3508.1696000000002</v>
       </c>
       <c r="AH21" s="5">
         <f t="shared" si="5"/>
@@ -3716,8 +3720,8 @@
       <c r="B22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="4">
-        <v>925</v>
+      <c r="C22" s="8">
+        <v>462.5</v>
       </c>
       <c r="D22" s="4">
         <v>1.2</v>
@@ -3740,14 +3744,14 @@
       </c>
       <c r="J22" s="2">
         <f t="shared" si="9"/>
-        <v>0.24049999999999999</v>
+        <v>0.12025</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="10"/>
-        <v>6503.12</v>
+        <v>3251.56</v>
       </c>
       <c r="M22" s="2">
         <v>750</v>
@@ -3773,7 +3777,7 @@
       </c>
       <c r="T22" s="2">
         <f t="shared" si="12"/>
-        <v>144.29999999999998</v>
+        <v>72.149999999999991</v>
       </c>
       <c r="U22" s="2">
         <v>250</v>
@@ -3786,15 +3790,15 @@
       </c>
       <c r="X22" s="2">
         <f t="shared" si="13"/>
-        <v>96.2</v>
+        <v>48.1</v>
       </c>
       <c r="Y22" s="2">
         <f t="shared" si="0"/>
-        <v>240.5</v>
+        <v>120.25</v>
       </c>
       <c r="Z22" s="2">
         <f t="shared" si="14"/>
-        <v>240.5</v>
+        <v>120.25</v>
       </c>
       <c r="AA22" s="2">
         <f t="shared" si="15"/>
@@ -3818,11 +3822,11 @@
       </c>
       <c r="AF22" s="5">
         <f t="shared" si="3"/>
-        <v>0.24049999999999999</v>
+        <v>0.12025</v>
       </c>
       <c r="AG22" s="5">
         <f t="shared" si="4"/>
-        <v>6503.12</v>
+        <v>3251.56</v>
       </c>
       <c r="AH22" s="5">
         <f t="shared" si="5"/>
@@ -3853,8 +3857,8 @@
       <c r="B23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="4">
-        <v>900</v>
+      <c r="C23" s="8">
+        <v>450</v>
       </c>
       <c r="D23" s="4">
         <v>1.2</v>
@@ -3877,14 +3881,14 @@
       </c>
       <c r="J23" s="2">
         <f t="shared" si="9"/>
-        <v>0.23400000000000001</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="K23" s="2">
         <v>0</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="10"/>
-        <v>6327.3600000000006</v>
+        <v>3163.6800000000003</v>
       </c>
       <c r="M23" s="2">
         <v>750</v>
@@ -3910,7 +3914,7 @@
       </c>
       <c r="T23" s="2">
         <f t="shared" si="12"/>
-        <v>140.4</v>
+        <v>70.2</v>
       </c>
       <c r="U23" s="2">
         <v>250</v>
@@ -3923,15 +3927,15 @@
       </c>
       <c r="X23" s="2">
         <f t="shared" si="13"/>
-        <v>93.600000000000009</v>
+        <v>46.800000000000004</v>
       </c>
       <c r="Y23" s="2">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="Z23" s="2">
         <f t="shared" si="14"/>
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="AA23" s="2">
         <f t="shared" si="15"/>
@@ -3955,11 +3959,11 @@
       </c>
       <c r="AF23" s="5">
         <f t="shared" si="3"/>
-        <v>0.23400000000000001</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="AG23" s="5">
         <f t="shared" si="4"/>
-        <v>6327.3600000000006</v>
+        <v>3163.6800000000003</v>
       </c>
       <c r="AH23" s="5">
         <f t="shared" si="5"/>
@@ -3990,8 +3994,8 @@
       <c r="B24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="4">
-        <v>850</v>
+      <c r="C24" s="8">
+        <v>425</v>
       </c>
       <c r="D24" s="4">
         <v>1.2</v>
@@ -4014,14 +4018,14 @@
       </c>
       <c r="J24" s="2">
         <f t="shared" si="9"/>
-        <v>0.221</v>
+        <v>0.1105</v>
       </c>
       <c r="K24" s="2">
         <v>0</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="10"/>
-        <v>5975.84</v>
+        <v>2987.92</v>
       </c>
       <c r="M24" s="2">
         <v>750</v>
@@ -4047,7 +4051,7 @@
       </c>
       <c r="T24" s="2">
         <f t="shared" si="12"/>
-        <v>132.6</v>
+        <v>66.3</v>
       </c>
       <c r="U24" s="2">
         <v>250</v>
@@ -4060,15 +4064,15 @@
       </c>
       <c r="X24" s="2">
         <f t="shared" si="13"/>
-        <v>88.4</v>
+        <v>44.2</v>
       </c>
       <c r="Y24" s="2">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>110.5</v>
       </c>
       <c r="Z24" s="2">
         <f t="shared" si="14"/>
-        <v>221</v>
+        <v>110.5</v>
       </c>
       <c r="AA24" s="2">
         <f t="shared" si="15"/>
@@ -4092,11 +4096,11 @@
       </c>
       <c r="AF24" s="5">
         <f t="shared" si="3"/>
-        <v>0.221</v>
+        <v>0.1105</v>
       </c>
       <c r="AG24" s="5">
         <f t="shared" si="4"/>
-        <v>5975.84</v>
+        <v>2987.92</v>
       </c>
       <c r="AH24" s="5">
         <f t="shared" si="5"/>
@@ -4127,8 +4131,8 @@
       <c r="B25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="4">
-        <v>800</v>
+      <c r="C25" s="8">
+        <v>400</v>
       </c>
       <c r="D25" s="4">
         <v>1.2</v>
@@ -4151,14 +4155,14 @@
       </c>
       <c r="J25" s="2">
         <f t="shared" si="9"/>
-        <v>0.20799999999999999</v>
+        <v>0.104</v>
       </c>
       <c r="K25" s="2">
         <v>0</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="10"/>
-        <v>5624.32</v>
+        <v>2812.16</v>
       </c>
       <c r="M25" s="2">
         <v>750</v>
@@ -4184,7 +4188,7 @@
       </c>
       <c r="T25" s="2">
         <f t="shared" si="12"/>
-        <v>124.8</v>
+        <v>62.4</v>
       </c>
       <c r="U25" s="2">
         <v>250</v>
@@ -4197,15 +4201,15 @@
       </c>
       <c r="X25" s="2">
         <f t="shared" si="13"/>
-        <v>83.2</v>
+        <v>41.6</v>
       </c>
       <c r="Y25" s="2">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="Z25" s="2">
         <f t="shared" si="14"/>
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="AA25" s="2">
         <f t="shared" si="15"/>
@@ -4229,11 +4233,11 @@
       </c>
       <c r="AF25" s="5">
         <f t="shared" si="3"/>
-        <v>0.20799999999999999</v>
+        <v>0.104</v>
       </c>
       <c r="AG25" s="5">
         <f t="shared" si="4"/>
-        <v>5624.32</v>
+        <v>2812.16</v>
       </c>
       <c r="AH25" s="5">
         <f t="shared" si="5"/>
@@ -4264,8 +4268,8 @@
       <c r="B26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="4">
-        <v>800</v>
+      <c r="C26" s="8">
+        <v>400</v>
       </c>
       <c r="D26" s="4">
         <v>1.2</v>
@@ -4288,14 +4292,14 @@
       </c>
       <c r="J26" s="2">
         <f t="shared" si="9"/>
-        <v>0.20799999999999999</v>
+        <v>0.104</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="10"/>
-        <v>5624.32</v>
+        <v>2812.16</v>
       </c>
       <c r="M26" s="2">
         <v>750</v>
@@ -4321,7 +4325,7 @@
       </c>
       <c r="T26" s="2">
         <f t="shared" si="12"/>
-        <v>124.8</v>
+        <v>62.4</v>
       </c>
       <c r="U26" s="2">
         <v>250</v>
@@ -4334,15 +4338,15 @@
       </c>
       <c r="X26" s="2">
         <f t="shared" si="13"/>
-        <v>83.2</v>
+        <v>41.6</v>
       </c>
       <c r="Y26" s="2">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="Z26" s="2">
         <f t="shared" si="14"/>
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="AA26" s="2">
         <f t="shared" si="15"/>
@@ -4366,11 +4370,11 @@
       </c>
       <c r="AF26" s="5">
         <f t="shared" si="3"/>
-        <v>0.20799999999999999</v>
+        <v>0.104</v>
       </c>
       <c r="AG26" s="5">
         <f t="shared" si="4"/>
-        <v>5624.32</v>
+        <v>2812.16</v>
       </c>
       <c r="AH26" s="5">
         <f t="shared" si="5"/>
@@ -4401,8 +4405,8 @@
       <c r="B27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="4">
-        <v>800</v>
+      <c r="C27" s="8">
+        <v>400</v>
       </c>
       <c r="D27" s="4">
         <v>1.2</v>
@@ -4425,14 +4429,14 @@
       </c>
       <c r="J27" s="2">
         <f t="shared" si="9"/>
-        <v>0.20799999999999999</v>
+        <v>0.104</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="10"/>
-        <v>5624.32</v>
+        <v>2812.16</v>
       </c>
       <c r="M27" s="2">
         <v>750</v>
@@ -4458,7 +4462,7 @@
       </c>
       <c r="T27" s="2">
         <f t="shared" si="12"/>
-        <v>124.8</v>
+        <v>62.4</v>
       </c>
       <c r="U27" s="2">
         <v>250</v>
@@ -4471,15 +4475,15 @@
       </c>
       <c r="X27" s="2">
         <f t="shared" si="13"/>
-        <v>83.2</v>
+        <v>41.6</v>
       </c>
       <c r="Y27" s="2">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="Z27" s="2">
         <f t="shared" si="14"/>
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="AA27" s="2">
         <f t="shared" si="15"/>
@@ -4503,11 +4507,11 @@
       </c>
       <c r="AF27" s="5">
         <f t="shared" si="3"/>
-        <v>0.20799999999999999</v>
+        <v>0.104</v>
       </c>
       <c r="AG27" s="5">
         <f t="shared" si="4"/>
-        <v>5624.32</v>
+        <v>2812.16</v>
       </c>
       <c r="AH27" s="5">
         <f t="shared" si="5"/>
@@ -4538,8 +4542,8 @@
       <c r="B28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="4">
-        <v>800</v>
+      <c r="C28" s="8">
+        <v>400</v>
       </c>
       <c r="D28" s="4">
         <v>1.2</v>
@@ -4562,14 +4566,14 @@
       </c>
       <c r="J28" s="2">
         <f t="shared" si="9"/>
-        <v>0.20799999999999999</v>
+        <v>0.104</v>
       </c>
       <c r="K28" s="2">
         <v>0</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="10"/>
-        <v>5624.32</v>
+        <v>2812.16</v>
       </c>
       <c r="M28" s="2">
         <v>750</v>
@@ -4595,7 +4599,7 @@
       </c>
       <c r="T28" s="2">
         <f t="shared" si="12"/>
-        <v>124.8</v>
+        <v>62.4</v>
       </c>
       <c r="U28" s="2">
         <v>250</v>
@@ -4608,15 +4612,15 @@
       </c>
       <c r="X28" s="2">
         <f t="shared" si="13"/>
-        <v>83.2</v>
+        <v>41.6</v>
       </c>
       <c r="Y28" s="2">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="Z28" s="2">
         <f t="shared" si="14"/>
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="AA28" s="2">
         <f t="shared" si="15"/>
@@ -4640,11 +4644,11 @@
       </c>
       <c r="AF28" s="5">
         <f t="shared" si="3"/>
-        <v>0.20799999999999999</v>
+        <v>0.104</v>
       </c>
       <c r="AG28" s="5">
         <f t="shared" si="4"/>
-        <v>5624.32</v>
+        <v>2812.16</v>
       </c>
       <c r="AH28" s="5">
         <f t="shared" si="5"/>
@@ -4675,8 +4679,8 @@
       <c r="B29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="4">
-        <v>750</v>
+      <c r="C29" s="8">
+        <v>375</v>
       </c>
       <c r="D29" s="4">
         <v>1.2</v>
@@ -4699,14 +4703,14 @@
       </c>
       <c r="J29" s="2">
         <f t="shared" si="9"/>
-        <v>0.19500000000000001</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="K29" s="2">
         <v>0</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="10"/>
-        <v>5272.8</v>
+        <v>2636.4</v>
       </c>
       <c r="M29" s="2">
         <v>750</v>
@@ -4732,7 +4736,7 @@
       </c>
       <c r="T29" s="2">
         <f t="shared" si="12"/>
-        <v>117</v>
+        <v>58.5</v>
       </c>
       <c r="U29" s="2">
         <v>250</v>
@@ -4745,15 +4749,15 @@
       </c>
       <c r="X29" s="2">
         <f t="shared" si="13"/>
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="Y29" s="2">
         <f t="shared" si="0"/>
-        <v>195</v>
+        <v>97.5</v>
       </c>
       <c r="Z29" s="2">
         <f t="shared" si="14"/>
-        <v>195</v>
+        <v>97.5</v>
       </c>
       <c r="AA29" s="2">
         <f t="shared" si="15"/>
@@ -4777,11 +4781,11 @@
       </c>
       <c r="AF29" s="5">
         <f t="shared" si="3"/>
-        <v>0.19500000000000001</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="AG29" s="5">
         <f t="shared" si="4"/>
-        <v>5272.8</v>
+        <v>2636.4</v>
       </c>
       <c r="AH29" s="5">
         <f t="shared" si="5"/>
@@ -4812,8 +4816,8 @@
       <c r="B30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="4">
-        <v>700</v>
+      <c r="C30" s="8">
+        <v>350</v>
       </c>
       <c r="D30" s="4">
         <v>1.2</v>
@@ -4836,14 +4840,14 @@
       </c>
       <c r="J30" s="2">
         <f t="shared" si="9"/>
-        <v>0.182</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="10"/>
-        <v>4921.28</v>
+        <v>2460.64</v>
       </c>
       <c r="M30" s="2">
         <v>750</v>
@@ -4869,7 +4873,7 @@
       </c>
       <c r="T30" s="2">
         <f t="shared" si="12"/>
-        <v>109.2</v>
+        <v>54.6</v>
       </c>
       <c r="U30" s="2">
         <v>250</v>
@@ -4882,15 +4886,15 @@
       </c>
       <c r="X30" s="2">
         <f t="shared" si="13"/>
-        <v>72.8</v>
+        <v>36.4</v>
       </c>
       <c r="Y30" s="2">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="Z30" s="2">
         <f t="shared" si="14"/>
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="AA30" s="2">
         <f t="shared" si="15"/>
@@ -4914,11 +4918,11 @@
       </c>
       <c r="AF30" s="5">
         <f t="shared" si="3"/>
-        <v>0.182</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="AG30" s="5">
         <f t="shared" si="4"/>
-        <v>4921.28</v>
+        <v>2460.64</v>
       </c>
       <c r="AH30" s="5">
         <f t="shared" si="5"/>
@@ -4949,8 +4953,8 @@
       <c r="B31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="4">
-        <v>650</v>
+      <c r="C31" s="8">
+        <v>325</v>
       </c>
       <c r="D31" s="4">
         <v>1.2</v>
@@ -4973,14 +4977,14 @@
       </c>
       <c r="J31" s="2">
         <f t="shared" si="9"/>
-        <v>0.16900000000000001</v>
+        <v>8.4500000000000006E-2</v>
       </c>
       <c r="K31" s="2">
         <v>0</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="10"/>
-        <v>4569.76</v>
+        <v>2284.88</v>
       </c>
       <c r="M31" s="2">
         <v>750</v>
@@ -5006,7 +5010,7 @@
       </c>
       <c r="T31" s="2">
         <f t="shared" si="12"/>
-        <v>101.39999999999999</v>
+        <v>50.699999999999996</v>
       </c>
       <c r="U31" s="2">
         <v>250</v>
@@ -5019,15 +5023,15 @@
       </c>
       <c r="X31" s="2">
         <f t="shared" si="13"/>
-        <v>67.600000000000009</v>
+        <v>33.800000000000004</v>
       </c>
       <c r="Y31" s="2">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>84.5</v>
       </c>
       <c r="Z31" s="2">
         <f t="shared" si="14"/>
-        <v>169</v>
+        <v>84.5</v>
       </c>
       <c r="AA31" s="2">
         <f t="shared" si="15"/>
@@ -5051,11 +5055,11 @@
       </c>
       <c r="AF31" s="5">
         <f t="shared" si="3"/>
-        <v>0.16900000000000001</v>
+        <v>8.4500000000000006E-2</v>
       </c>
       <c r="AG31" s="5">
         <f t="shared" si="4"/>
-        <v>4569.76</v>
+        <v>2284.88</v>
       </c>
       <c r="AH31" s="5">
         <f t="shared" si="5"/>
@@ -5086,8 +5090,8 @@
       <c r="B32" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="4">
-        <v>600</v>
+      <c r="C32" s="8">
+        <v>300</v>
       </c>
       <c r="D32" s="4">
         <v>1.2</v>
@@ -5110,14 +5114,14 @@
       </c>
       <c r="J32" s="2">
         <f t="shared" si="9"/>
-        <v>0.156</v>
+        <v>7.8E-2</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="10"/>
-        <v>4218.24</v>
+        <v>2109.12</v>
       </c>
       <c r="M32" s="2">
         <v>750</v>
@@ -5143,7 +5147,7 @@
       </c>
       <c r="T32" s="2">
         <f t="shared" si="12"/>
-        <v>93.6</v>
+        <v>46.8</v>
       </c>
       <c r="U32" s="2">
         <v>250</v>
@@ -5156,15 +5160,15 @@
       </c>
       <c r="X32" s="2">
         <f t="shared" si="13"/>
-        <v>62.400000000000006</v>
+        <v>31.200000000000003</v>
       </c>
       <c r="Y32" s="2">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="Z32" s="2">
         <f t="shared" si="14"/>
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="AA32" s="2">
         <f t="shared" si="15"/>
@@ -5188,11 +5192,11 @@
       </c>
       <c r="AF32" s="5">
         <f t="shared" si="3"/>
-        <v>0.156</v>
+        <v>7.8E-2</v>
       </c>
       <c r="AG32" s="5">
         <f t="shared" si="4"/>
-        <v>4218.24</v>
+        <v>2109.12</v>
       </c>
       <c r="AH32" s="5">
         <f t="shared" si="5"/>
@@ -5223,8 +5227,8 @@
       <c r="B33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="4">
-        <v>550</v>
+      <c r="C33" s="8">
+        <v>275</v>
       </c>
       <c r="D33" s="4">
         <v>1.2</v>
@@ -5247,14 +5251,14 @@
       </c>
       <c r="J33" s="2">
         <f t="shared" si="9"/>
-        <v>0.14299999999999999</v>
+        <v>7.1499999999999994E-2</v>
       </c>
       <c r="K33" s="2">
         <v>0</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="10"/>
-        <v>3866.7200000000003</v>
+        <v>1933.3600000000001</v>
       </c>
       <c r="M33" s="2">
         <v>750</v>
@@ -5280,7 +5284,7 @@
       </c>
       <c r="T33" s="2">
         <f t="shared" si="12"/>
-        <v>85.8</v>
+        <v>42.9</v>
       </c>
       <c r="U33" s="2">
         <v>250</v>
@@ -5293,15 +5297,15 @@
       </c>
       <c r="X33" s="2">
         <f t="shared" si="13"/>
-        <v>57.2</v>
+        <v>28.6</v>
       </c>
       <c r="Y33" s="2">
         <f t="shared" si="0"/>
-        <v>143</v>
+        <v>71.5</v>
       </c>
       <c r="Z33" s="2">
         <f t="shared" si="14"/>
-        <v>143</v>
+        <v>71.5</v>
       </c>
       <c r="AA33" s="2">
         <f t="shared" si="15"/>
@@ -5325,11 +5329,11 @@
       </c>
       <c r="AF33" s="5">
         <f t="shared" si="3"/>
-        <v>0.14299999999999999</v>
+        <v>7.1499999999999994E-2</v>
       </c>
       <c r="AG33" s="5">
         <f t="shared" si="4"/>
-        <v>3866.7200000000003</v>
+        <v>1933.3600000000001</v>
       </c>
       <c r="AH33" s="5">
         <f t="shared" si="5"/>
@@ -5360,8 +5364,8 @@
       <c r="B34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="4">
-        <v>500</v>
+      <c r="C34" s="8">
+        <v>250</v>
       </c>
       <c r="D34" s="4">
         <v>1.2</v>
@@ -5384,14 +5388,14 @@
       </c>
       <c r="J34" s="2">
         <f t="shared" si="9"/>
-        <v>0.13</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K34" s="2">
         <v>0</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="10"/>
-        <v>3515.2000000000003</v>
+        <v>1757.6000000000001</v>
       </c>
       <c r="M34" s="2">
         <v>750</v>
@@ -5417,7 +5421,7 @@
       </c>
       <c r="T34" s="2">
         <f t="shared" si="12"/>
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="U34" s="2">
         <v>250</v>
@@ -5430,15 +5434,15 @@
       </c>
       <c r="X34" s="2">
         <f t="shared" si="13"/>
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="Y34" s="2">
         <f t="shared" ref="Y34:Y70" si="18">C34*G34</f>
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="Z34" s="2">
         <f t="shared" si="14"/>
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="AA34" s="2">
         <f t="shared" si="15"/>
@@ -5462,11 +5466,11 @@
       </c>
       <c r="AF34" s="5">
         <f t="shared" ref="AF34:AF70" si="21">J34</f>
-        <v>0.13</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AG34" s="5">
         <f t="shared" ref="AG34:AG70" si="22">L34</f>
-        <v>3515.2000000000003</v>
+        <v>1757.6000000000001</v>
       </c>
       <c r="AH34" s="5">
         <f t="shared" ref="AH34:AH70" si="23">M34</f>
@@ -5497,8 +5501,8 @@
       <c r="B35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="4">
-        <v>450</v>
+      <c r="C35" s="8">
+        <v>225</v>
       </c>
       <c r="D35" s="4">
         <v>1.2</v>
@@ -5521,14 +5525,14 @@
       </c>
       <c r="J35" s="2">
         <f t="shared" si="9"/>
-        <v>0.11700000000000001</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="K35" s="2">
         <v>0</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="10"/>
-        <v>3163.6800000000003</v>
+        <v>1581.8400000000001</v>
       </c>
       <c r="M35" s="2">
         <v>750</v>
@@ -5554,7 +5558,7 @@
       </c>
       <c r="T35" s="2">
         <f t="shared" si="12"/>
-        <v>70.2</v>
+        <v>35.1</v>
       </c>
       <c r="U35" s="2">
         <v>250</v>
@@ -5567,15 +5571,15 @@
       </c>
       <c r="X35" s="2">
         <f t="shared" si="13"/>
-        <v>46.800000000000004</v>
+        <v>23.400000000000002</v>
       </c>
       <c r="Y35" s="2">
         <f t="shared" si="18"/>
-        <v>117</v>
+        <v>58.5</v>
       </c>
       <c r="Z35" s="2">
         <f t="shared" si="14"/>
-        <v>117</v>
+        <v>58.5</v>
       </c>
       <c r="AA35" s="2">
         <f t="shared" si="15"/>
@@ -5599,11 +5603,11 @@
       </c>
       <c r="AF35" s="5">
         <f t="shared" si="21"/>
-        <v>0.11700000000000001</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="AG35" s="5">
         <f t="shared" si="22"/>
-        <v>3163.6800000000003</v>
+        <v>1581.8400000000001</v>
       </c>
       <c r="AH35" s="5">
         <f t="shared" si="23"/>
@@ -5634,8 +5638,8 @@
       <c r="B36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="4">
-        <v>450</v>
+      <c r="C36" s="8">
+        <v>225</v>
       </c>
       <c r="D36" s="4">
         <v>1.2</v>
@@ -5658,14 +5662,14 @@
       </c>
       <c r="J36" s="2">
         <f t="shared" si="9"/>
-        <v>0.11700000000000001</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="K36" s="2">
         <v>0</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="10"/>
-        <v>3163.6800000000003</v>
+        <v>1581.8400000000001</v>
       </c>
       <c r="M36" s="2">
         <v>750</v>
@@ -5691,7 +5695,7 @@
       </c>
       <c r="T36" s="2">
         <f t="shared" si="12"/>
-        <v>70.2</v>
+        <v>35.1</v>
       </c>
       <c r="U36" s="2">
         <v>250</v>
@@ -5704,15 +5708,15 @@
       </c>
       <c r="X36" s="2">
         <f t="shared" si="13"/>
-        <v>46.800000000000004</v>
+        <v>23.400000000000002</v>
       </c>
       <c r="Y36" s="2">
         <f t="shared" si="18"/>
-        <v>117</v>
+        <v>58.5</v>
       </c>
       <c r="Z36" s="2">
         <f t="shared" si="14"/>
-        <v>117</v>
+        <v>58.5</v>
       </c>
       <c r="AA36" s="2">
         <f t="shared" si="15"/>
@@ -5736,11 +5740,11 @@
       </c>
       <c r="AF36" s="5">
         <f t="shared" si="21"/>
-        <v>0.11700000000000001</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="AG36" s="5">
         <f t="shared" si="22"/>
-        <v>3163.6800000000003</v>
+        <v>1581.8400000000001</v>
       </c>
       <c r="AH36" s="5">
         <f t="shared" si="23"/>
@@ -5771,8 +5775,8 @@
       <c r="B37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="4">
-        <v>450</v>
+      <c r="C37" s="8">
+        <v>225</v>
       </c>
       <c r="D37" s="4">
         <v>1.2</v>
@@ -5795,14 +5799,14 @@
       </c>
       <c r="J37" s="2">
         <f t="shared" si="9"/>
-        <v>0.11700000000000001</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="K37" s="2">
         <v>0</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="10"/>
-        <v>3163.6800000000003</v>
+        <v>1581.8400000000001</v>
       </c>
       <c r="M37" s="2">
         <v>750</v>
@@ -5828,7 +5832,7 @@
       </c>
       <c r="T37" s="2">
         <f t="shared" si="12"/>
-        <v>70.2</v>
+        <v>35.1</v>
       </c>
       <c r="U37" s="2">
         <v>250</v>
@@ -5841,15 +5845,15 @@
       </c>
       <c r="X37" s="2">
         <f t="shared" si="13"/>
-        <v>46.800000000000004</v>
+        <v>23.400000000000002</v>
       </c>
       <c r="Y37" s="2">
         <f t="shared" si="18"/>
-        <v>117</v>
+        <v>58.5</v>
       </c>
       <c r="Z37" s="2">
         <f t="shared" si="14"/>
-        <v>117</v>
+        <v>58.5</v>
       </c>
       <c r="AA37" s="2">
         <f t="shared" si="15"/>
@@ -5873,11 +5877,11 @@
       </c>
       <c r="AF37" s="5">
         <f t="shared" si="21"/>
-        <v>0.11700000000000001</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="AG37" s="5">
         <f t="shared" si="22"/>
-        <v>3163.6800000000003</v>
+        <v>1581.8400000000001</v>
       </c>
       <c r="AH37" s="5">
         <f t="shared" si="23"/>
@@ -5908,8 +5912,8 @@
       <c r="B38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="4">
-        <v>450</v>
+      <c r="C38" s="8">
+        <v>225</v>
       </c>
       <c r="D38" s="4">
         <v>1.2</v>
@@ -5932,14 +5936,14 @@
       </c>
       <c r="J38" s="2">
         <f t="shared" si="9"/>
-        <v>0.11700000000000001</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="K38" s="2">
         <v>0</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="10"/>
-        <v>3163.6800000000003</v>
+        <v>1581.8400000000001</v>
       </c>
       <c r="M38" s="2">
         <v>750</v>
@@ -5965,7 +5969,7 @@
       </c>
       <c r="T38" s="2">
         <f t="shared" si="12"/>
-        <v>70.2</v>
+        <v>35.1</v>
       </c>
       <c r="U38" s="2">
         <v>250</v>
@@ -5978,15 +5982,15 @@
       </c>
       <c r="X38" s="2">
         <f t="shared" si="13"/>
-        <v>46.800000000000004</v>
+        <v>23.400000000000002</v>
       </c>
       <c r="Y38" s="2">
         <f t="shared" si="18"/>
-        <v>117</v>
+        <v>58.5</v>
       </c>
       <c r="Z38" s="2">
         <f t="shared" si="14"/>
-        <v>117</v>
+        <v>58.5</v>
       </c>
       <c r="AA38" s="2">
         <f t="shared" si="15"/>
@@ -6010,11 +6014,11 @@
       </c>
       <c r="AF38" s="5">
         <f t="shared" si="21"/>
-        <v>0.11700000000000001</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="AG38" s="5">
         <f t="shared" si="22"/>
-        <v>3163.6800000000003</v>
+        <v>1581.8400000000001</v>
       </c>
       <c r="AH38" s="5">
         <f t="shared" si="23"/>
@@ -6045,8 +6049,8 @@
       <c r="B39" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="4">
-        <v>450</v>
+      <c r="C39" s="8">
+        <v>225</v>
       </c>
       <c r="D39" s="4">
         <v>1.2</v>
@@ -6069,14 +6073,14 @@
       </c>
       <c r="J39" s="2">
         <f t="shared" si="9"/>
-        <v>0.11700000000000001</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="K39" s="2">
         <v>0</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="10"/>
-        <v>3163.6800000000003</v>
+        <v>1581.8400000000001</v>
       </c>
       <c r="M39" s="2">
         <v>750</v>
@@ -6102,7 +6106,7 @@
       </c>
       <c r="T39" s="2">
         <f t="shared" si="12"/>
-        <v>70.2</v>
+        <v>35.1</v>
       </c>
       <c r="U39" s="2">
         <v>250</v>
@@ -6115,15 +6119,15 @@
       </c>
       <c r="X39" s="2">
         <f t="shared" si="13"/>
-        <v>46.800000000000004</v>
+        <v>23.400000000000002</v>
       </c>
       <c r="Y39" s="2">
         <f t="shared" si="18"/>
-        <v>117</v>
+        <v>58.5</v>
       </c>
       <c r="Z39" s="2">
         <f t="shared" si="14"/>
-        <v>117</v>
+        <v>58.5</v>
       </c>
       <c r="AA39" s="2">
         <f t="shared" si="15"/>
@@ -6147,11 +6151,11 @@
       </c>
       <c r="AF39" s="5">
         <f t="shared" si="21"/>
-        <v>0.11700000000000001</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="AG39" s="5">
         <f t="shared" si="22"/>
-        <v>3163.6800000000003</v>
+        <v>1581.8400000000001</v>
       </c>
       <c r="AH39" s="5">
         <f t="shared" si="23"/>
@@ -6182,8 +6186,8 @@
       <c r="B40" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="4">
-        <v>400</v>
+      <c r="C40" s="8">
+        <v>200</v>
       </c>
       <c r="D40" s="4">
         <v>1.2</v>
@@ -6206,14 +6210,14 @@
       </c>
       <c r="J40" s="2">
         <f t="shared" si="9"/>
-        <v>0.104</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="K40" s="2">
         <v>0</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="10"/>
-        <v>2812.16</v>
+        <v>1406.08</v>
       </c>
       <c r="M40" s="2">
         <v>750</v>
@@ -6239,7 +6243,7 @@
       </c>
       <c r="T40" s="2">
         <f t="shared" si="12"/>
-        <v>62.4</v>
+        <v>31.2</v>
       </c>
       <c r="U40" s="2">
         <v>250</v>
@@ -6252,15 +6256,15 @@
       </c>
       <c r="X40" s="2">
         <f t="shared" si="13"/>
-        <v>41.6</v>
+        <v>20.8</v>
       </c>
       <c r="Y40" s="2">
         <f t="shared" si="18"/>
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="Z40" s="2">
         <f t="shared" si="14"/>
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="AA40" s="2">
         <f t="shared" si="15"/>
@@ -6284,11 +6288,11 @@
       </c>
       <c r="AF40" s="5">
         <f t="shared" si="21"/>
-        <v>0.104</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="AG40" s="5">
         <f t="shared" si="22"/>
-        <v>2812.16</v>
+        <v>1406.08</v>
       </c>
       <c r="AH40" s="5">
         <f t="shared" si="23"/>
@@ -6319,8 +6323,8 @@
       <c r="B41" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="4">
-        <v>380</v>
+      <c r="C41" s="8">
+        <v>190</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -6343,14 +6347,14 @@
       </c>
       <c r="J41" s="2">
         <f t="shared" si="9"/>
-        <v>0.114</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="K41" s="2">
         <v>0</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="10"/>
-        <v>3082.56</v>
+        <v>1541.28</v>
       </c>
       <c r="M41" s="2">
         <v>750</v>
@@ -6376,7 +6380,7 @@
       </c>
       <c r="T41" s="2">
         <f t="shared" si="12"/>
-        <v>68.399999999999991</v>
+        <v>34.199999999999996</v>
       </c>
       <c r="U41" s="2">
         <v>250</v>
@@ -6389,15 +6393,15 @@
       </c>
       <c r="X41" s="2">
         <f t="shared" si="13"/>
-        <v>45.6</v>
+        <v>22.8</v>
       </c>
       <c r="Y41" s="2">
         <f t="shared" si="18"/>
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="Z41" s="2">
         <f t="shared" si="14"/>
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="AA41" s="2">
         <f t="shared" si="15"/>
@@ -6421,11 +6425,11 @@
       </c>
       <c r="AF41" s="5">
         <f t="shared" si="21"/>
-        <v>0.114</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="AG41" s="5">
         <f t="shared" si="22"/>
-        <v>3082.56</v>
+        <v>1541.28</v>
       </c>
       <c r="AH41" s="5">
         <f t="shared" si="23"/>
@@ -6456,8 +6460,8 @@
       <c r="B42" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="4">
-        <v>360</v>
+      <c r="C42" s="8">
+        <v>180</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -6480,14 +6484,14 @@
       </c>
       <c r="J42" s="2">
         <f t="shared" si="9"/>
-        <v>0.108</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="10"/>
-        <v>2920.32</v>
+        <v>1460.16</v>
       </c>
       <c r="M42" s="2">
         <v>750</v>
@@ -6513,7 +6517,7 @@
       </c>
       <c r="T42" s="2">
         <f t="shared" si="12"/>
-        <v>64.8</v>
+        <v>32.4</v>
       </c>
       <c r="U42" s="2">
         <v>250</v>
@@ -6526,15 +6530,15 @@
       </c>
       <c r="X42" s="2">
         <f t="shared" si="13"/>
-        <v>43.2</v>
+        <v>21.6</v>
       </c>
       <c r="Y42" s="2">
         <f t="shared" si="18"/>
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="Z42" s="2">
         <f t="shared" si="14"/>
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="AA42" s="2">
         <f t="shared" si="15"/>
@@ -6558,11 +6562,11 @@
       </c>
       <c r="AF42" s="5">
         <f t="shared" si="21"/>
-        <v>0.108</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="AG42" s="5">
         <f t="shared" si="22"/>
-        <v>2920.32</v>
+        <v>1460.16</v>
       </c>
       <c r="AH42" s="5">
         <f t="shared" si="23"/>
@@ -6593,8 +6597,8 @@
       <c r="B43" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="4">
-        <v>340</v>
+      <c r="C43" s="8">
+        <v>170</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -6617,14 +6621,14 @@
       </c>
       <c r="J43" s="2">
         <f t="shared" si="9"/>
-        <v>0.10199999999999999</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="10"/>
-        <v>2758.08</v>
+        <v>1379.04</v>
       </c>
       <c r="M43" s="2">
         <v>750</v>
@@ -6650,7 +6654,7 @@
       </c>
       <c r="T43" s="2">
         <f t="shared" si="12"/>
-        <v>61.199999999999996</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="U43" s="2">
         <v>250</v>
@@ -6663,15 +6667,15 @@
       </c>
       <c r="X43" s="2">
         <f t="shared" si="13"/>
-        <v>40.800000000000004</v>
+        <v>20.400000000000002</v>
       </c>
       <c r="Y43" s="2">
         <f t="shared" si="18"/>
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="Z43" s="2">
         <f t="shared" si="14"/>
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="AA43" s="2">
         <f t="shared" si="15"/>
@@ -6695,11 +6699,11 @@
       </c>
       <c r="AF43" s="5">
         <f t="shared" si="21"/>
-        <v>0.10199999999999999</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="AG43" s="5">
         <f t="shared" si="22"/>
-        <v>2758.08</v>
+        <v>1379.04</v>
       </c>
       <c r="AH43" s="5">
         <f t="shared" si="23"/>
@@ -6730,8 +6734,8 @@
       <c r="B44" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="4">
-        <v>320</v>
+      <c r="C44" s="8">
+        <v>160</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -6754,14 +6758,14 @@
       </c>
       <c r="J44" s="2">
         <f t="shared" si="9"/>
-        <v>9.6000000000000002E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="K44" s="2">
         <v>0</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="10"/>
-        <v>2595.84</v>
+        <v>1297.92</v>
       </c>
       <c r="M44" s="2">
         <v>750</v>
@@ -6787,7 +6791,7 @@
       </c>
       <c r="T44" s="2">
         <f t="shared" si="12"/>
-        <v>57.599999999999994</v>
+        <v>28.799999999999997</v>
       </c>
       <c r="U44" s="2">
         <v>250</v>
@@ -6800,15 +6804,15 @@
       </c>
       <c r="X44" s="2">
         <f t="shared" si="13"/>
-        <v>38.400000000000006</v>
+        <v>19.200000000000003</v>
       </c>
       <c r="Y44" s="2">
         <f t="shared" si="18"/>
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="Z44" s="2">
         <f t="shared" si="14"/>
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="AA44" s="2">
         <f t="shared" si="15"/>
@@ -6832,11 +6836,11 @@
       </c>
       <c r="AF44" s="5">
         <f t="shared" si="21"/>
-        <v>9.6000000000000002E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AG44" s="5">
         <f t="shared" si="22"/>
-        <v>2595.84</v>
+        <v>1297.92</v>
       </c>
       <c r="AH44" s="5">
         <f t="shared" si="23"/>
@@ -6867,8 +6871,8 @@
       <c r="B45" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="4">
-        <v>300</v>
+      <c r="C45" s="8">
+        <v>150</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -6891,14 +6895,14 @@
       </c>
       <c r="J45" s="2">
         <f t="shared" si="9"/>
-        <v>0.09</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="K45" s="2">
         <v>0</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="10"/>
-        <v>2433.6</v>
+        <v>1216.8</v>
       </c>
       <c r="M45" s="2">
         <v>750</v>
@@ -6924,7 +6928,7 @@
       </c>
       <c r="T45" s="2">
         <f t="shared" si="12"/>
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="U45" s="2">
         <v>250</v>
@@ -6937,15 +6941,15 @@
       </c>
       <c r="X45" s="2">
         <f t="shared" si="13"/>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="Y45" s="2">
         <f t="shared" si="18"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="Z45" s="2">
         <f t="shared" si="14"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="AA45" s="2">
         <f t="shared" si="15"/>
@@ -6969,11 +6973,11 @@
       </c>
       <c r="AF45" s="5">
         <f t="shared" si="21"/>
-        <v>0.09</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AG45" s="5">
         <f t="shared" si="22"/>
-        <v>2433.6</v>
+        <v>1216.8</v>
       </c>
       <c r="AH45" s="5">
         <f t="shared" si="23"/>
@@ -7004,8 +7008,8 @@
       <c r="B46" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="4">
-        <v>280</v>
+      <c r="C46" s="8">
+        <v>140</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -7028,14 +7032,14 @@
       </c>
       <c r="J46" s="2">
         <f t="shared" si="9"/>
-        <v>8.4000000000000005E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="K46" s="2">
         <v>0</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="10"/>
-        <v>2271.36</v>
+        <v>1135.68</v>
       </c>
       <c r="M46" s="2">
         <v>750</v>
@@ -7061,7 +7065,7 @@
       </c>
       <c r="T46" s="2">
         <f t="shared" si="12"/>
-        <v>50.4</v>
+        <v>25.2</v>
       </c>
       <c r="U46" s="2">
         <v>250</v>
@@ -7074,15 +7078,15 @@
       </c>
       <c r="X46" s="2">
         <f t="shared" si="13"/>
-        <v>33.6</v>
+        <v>16.8</v>
       </c>
       <c r="Y46" s="2">
         <f t="shared" si="18"/>
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="Z46" s="2">
         <f t="shared" si="14"/>
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="AA46" s="2">
         <f t="shared" si="15"/>
@@ -7106,11 +7110,11 @@
       </c>
       <c r="AF46" s="5">
         <f t="shared" si="21"/>
-        <v>8.4000000000000005E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="AG46" s="5">
         <f t="shared" si="22"/>
-        <v>2271.36</v>
+        <v>1135.68</v>
       </c>
       <c r="AH46" s="5">
         <f t="shared" si="23"/>
@@ -7141,8 +7145,8 @@
       <c r="B47" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="4">
-        <v>260</v>
+      <c r="C47" s="8">
+        <v>130</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -7165,14 +7169,14 @@
       </c>
       <c r="J47" s="2">
         <f t="shared" si="9"/>
-        <v>7.8E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="K47" s="2">
         <v>0</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="10"/>
-        <v>2109.12</v>
+        <v>1054.56</v>
       </c>
       <c r="M47" s="2">
         <v>750</v>
@@ -7198,7 +7202,7 @@
       </c>
       <c r="T47" s="2">
         <f t="shared" si="12"/>
-        <v>46.8</v>
+        <v>23.4</v>
       </c>
       <c r="U47" s="2">
         <v>250</v>
@@ -7211,15 +7215,15 @@
       </c>
       <c r="X47" s="2">
         <f t="shared" si="13"/>
-        <v>31.200000000000003</v>
+        <v>15.600000000000001</v>
       </c>
       <c r="Y47" s="2">
         <f t="shared" si="18"/>
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="Z47" s="2">
         <f t="shared" si="14"/>
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AA47" s="2">
         <f t="shared" si="15"/>
@@ -7243,11 +7247,11 @@
       </c>
       <c r="AF47" s="5">
         <f t="shared" si="21"/>
-        <v>7.8E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="AG47" s="5">
         <f t="shared" si="22"/>
-        <v>2109.12</v>
+        <v>1054.56</v>
       </c>
       <c r="AH47" s="5">
         <f t="shared" si="23"/>
@@ -7278,8 +7282,8 @@
       <c r="B48" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="4">
-        <v>240</v>
+      <c r="C48" s="8">
+        <v>120</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -7302,14 +7306,14 @@
       </c>
       <c r="J48" s="2">
         <f t="shared" si="9"/>
-        <v>7.1999999999999995E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="K48" s="2">
         <v>0</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="10"/>
-        <v>1946.88</v>
+        <v>973.44</v>
       </c>
       <c r="M48" s="2">
         <v>750</v>
@@ -7335,7 +7339,7 @@
       </c>
       <c r="T48" s="2">
         <f t="shared" si="12"/>
-        <v>43.199999999999996</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="U48" s="2">
         <v>250</v>
@@ -7348,15 +7352,15 @@
       </c>
       <c r="X48" s="2">
         <f t="shared" si="13"/>
-        <v>28.8</v>
+        <v>14.4</v>
       </c>
       <c r="Y48" s="2">
         <f t="shared" si="18"/>
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="Z48" s="2">
         <f t="shared" si="14"/>
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="AA48" s="2">
         <f t="shared" si="15"/>
@@ -7380,11 +7384,11 @@
       </c>
       <c r="AF48" s="5">
         <f t="shared" si="21"/>
-        <v>7.1999999999999995E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="AG48" s="5">
         <f t="shared" si="22"/>
-        <v>1946.88</v>
+        <v>973.44</v>
       </c>
       <c r="AH48" s="5">
         <f t="shared" si="23"/>
@@ -7415,8 +7419,8 @@
       <c r="B49" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="4">
-        <v>220</v>
+      <c r="C49" s="8">
+        <v>110</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -7439,14 +7443,14 @@
       </c>
       <c r="J49" s="2">
         <f t="shared" si="9"/>
-        <v>6.6000000000000003E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="K49" s="2">
         <v>0</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="10"/>
-        <v>1784.64</v>
+        <v>892.32</v>
       </c>
       <c r="M49" s="2">
         <v>750</v>
@@ -7472,7 +7476,7 @@
       </c>
       <c r="T49" s="2">
         <f t="shared" si="12"/>
-        <v>39.6</v>
+        <v>19.8</v>
       </c>
       <c r="U49" s="2">
         <v>250</v>
@@ -7485,15 +7489,15 @@
       </c>
       <c r="X49" s="2">
         <f t="shared" si="13"/>
-        <v>26.400000000000002</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="Y49" s="2">
         <f t="shared" si="18"/>
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="Z49" s="2">
         <f t="shared" si="14"/>
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="AA49" s="2">
         <f t="shared" si="15"/>
@@ -7517,11 +7521,11 @@
       </c>
       <c r="AF49" s="5">
         <f t="shared" si="21"/>
-        <v>6.6000000000000003E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="AG49" s="5">
         <f t="shared" si="22"/>
-        <v>1784.64</v>
+        <v>892.32</v>
       </c>
       <c r="AH49" s="5">
         <f t="shared" si="23"/>
@@ -7552,8 +7556,8 @@
       <c r="B50" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="4">
-        <v>200</v>
+      <c r="C50" s="8">
+        <v>100</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -7576,14 +7580,14 @@
       </c>
       <c r="J50" s="2">
         <f t="shared" si="9"/>
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="K50" s="2">
         <v>0</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="10"/>
-        <v>1622.4</v>
+        <v>811.2</v>
       </c>
       <c r="M50" s="2">
         <v>750</v>
@@ -7609,7 +7613,7 @@
       </c>
       <c r="T50" s="2">
         <f t="shared" si="12"/>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="U50" s="2">
         <v>250</v>
@@ -7622,15 +7626,15 @@
       </c>
       <c r="X50" s="2">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Y50" s="2">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Z50" s="2">
         <f t="shared" si="14"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AA50" s="2">
         <f t="shared" si="15"/>
@@ -7654,11 +7658,11 @@
       </c>
       <c r="AF50" s="5">
         <f t="shared" si="21"/>
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="AG50" s="5">
         <f t="shared" si="22"/>
-        <v>1622.4</v>
+        <v>811.2</v>
       </c>
       <c r="AH50" s="5">
         <f t="shared" si="23"/>
@@ -7689,8 +7693,8 @@
       <c r="B51" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="4">
-        <v>200</v>
+      <c r="C51" s="8">
+        <v>100</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -7713,14 +7717,14 @@
       </c>
       <c r="J51" s="2">
         <f t="shared" si="9"/>
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="K51" s="2">
         <v>0</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="10"/>
-        <v>1622.4</v>
+        <v>811.2</v>
       </c>
       <c r="M51" s="2">
         <v>750</v>
@@ -7746,7 +7750,7 @@
       </c>
       <c r="T51" s="2">
         <f t="shared" si="12"/>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="U51" s="2">
         <v>250</v>
@@ -7759,15 +7763,15 @@
       </c>
       <c r="X51" s="2">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Y51" s="2">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Z51" s="2">
         <f t="shared" si="14"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AA51" s="2">
         <f t="shared" si="15"/>
@@ -7791,11 +7795,11 @@
       </c>
       <c r="AF51" s="5">
         <f t="shared" si="21"/>
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="AG51" s="5">
         <f t="shared" si="22"/>
-        <v>1622.4</v>
+        <v>811.2</v>
       </c>
       <c r="AH51" s="5">
         <f t="shared" si="23"/>
@@ -7826,8 +7830,8 @@
       <c r="B52" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="4">
-        <v>200</v>
+      <c r="C52" s="8">
+        <v>100</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -7850,14 +7854,14 @@
       </c>
       <c r="J52" s="2">
         <f t="shared" si="9"/>
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="K52" s="2">
         <v>0</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="10"/>
-        <v>1622.4</v>
+        <v>811.2</v>
       </c>
       <c r="M52" s="2">
         <v>750</v>
@@ -7883,7 +7887,7 @@
       </c>
       <c r="T52" s="2">
         <f t="shared" si="12"/>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="U52" s="2">
         <v>250</v>
@@ -7896,15 +7900,15 @@
       </c>
       <c r="X52" s="2">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Y52" s="2">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Z52" s="2">
         <f t="shared" si="14"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AA52" s="2">
         <f t="shared" si="15"/>
@@ -7928,11 +7932,11 @@
       </c>
       <c r="AF52" s="5">
         <f t="shared" si="21"/>
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="AG52" s="5">
         <f t="shared" si="22"/>
-        <v>1622.4</v>
+        <v>811.2</v>
       </c>
       <c r="AH52" s="5">
         <f t="shared" si="23"/>
@@ -7963,8 +7967,8 @@
       <c r="B53" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="4">
-        <v>200</v>
+      <c r="C53" s="8">
+        <v>100</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -7987,14 +7991,14 @@
       </c>
       <c r="J53" s="2">
         <f t="shared" si="9"/>
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="K53" s="2">
         <v>0</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="10"/>
-        <v>1622.4</v>
+        <v>811.2</v>
       </c>
       <c r="M53" s="2">
         <v>750</v>
@@ -8020,7 +8024,7 @@
       </c>
       <c r="T53" s="2">
         <f t="shared" si="12"/>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="U53" s="2">
         <v>250</v>
@@ -8033,15 +8037,15 @@
       </c>
       <c r="X53" s="2">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Y53" s="2">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Z53" s="2">
         <f t="shared" si="14"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AA53" s="2">
         <f t="shared" si="15"/>
@@ -8065,11 +8069,11 @@
       </c>
       <c r="AF53" s="5">
         <f t="shared" si="21"/>
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="AG53" s="5">
         <f t="shared" si="22"/>
-        <v>1622.4</v>
+        <v>811.2</v>
       </c>
       <c r="AH53" s="5">
         <f t="shared" si="23"/>
@@ -8100,8 +8104,8 @@
       <c r="B54" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="4">
-        <v>200</v>
+      <c r="C54" s="8">
+        <v>100</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -8124,14 +8128,14 @@
       </c>
       <c r="J54" s="2">
         <f t="shared" si="9"/>
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="K54" s="2">
         <v>0</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="10"/>
-        <v>1622.4</v>
+        <v>811.2</v>
       </c>
       <c r="M54" s="2">
         <v>750</v>
@@ -8157,7 +8161,7 @@
       </c>
       <c r="T54" s="2">
         <f t="shared" si="12"/>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="U54" s="2">
         <v>250</v>
@@ -8170,15 +8174,15 @@
       </c>
       <c r="X54" s="2">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Y54" s="2">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Z54" s="2">
         <f t="shared" si="14"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AA54" s="2">
         <f t="shared" si="15"/>
@@ -8202,11 +8206,11 @@
       </c>
       <c r="AF54" s="5">
         <f t="shared" si="21"/>
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="AG54" s="5">
         <f t="shared" si="22"/>
-        <v>1622.4</v>
+        <v>811.2</v>
       </c>
       <c r="AH54" s="5">
         <f t="shared" si="23"/>
@@ -8237,8 +8241,8 @@
       <c r="B55" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="4">
-        <v>200</v>
+      <c r="C55" s="8">
+        <v>100</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -8261,14 +8265,14 @@
       </c>
       <c r="J55" s="2">
         <f t="shared" si="9"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K55" s="2">
         <v>0</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="10"/>
-        <v>1892.8</v>
+        <v>946.4</v>
       </c>
       <c r="M55" s="2">
         <v>750</v>
@@ -8294,7 +8298,7 @@
       </c>
       <c r="T55" s="2">
         <f t="shared" si="12"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="U55" s="2">
         <v>250</v>
@@ -8307,15 +8311,15 @@
       </c>
       <c r="X55" s="2">
         <f t="shared" si="13"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Y55" s="2">
         <f t="shared" si="18"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="Z55" s="2">
         <f t="shared" si="14"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AA55" s="2">
         <f t="shared" si="15"/>
@@ -8339,11 +8343,11 @@
       </c>
       <c r="AF55" s="5">
         <f t="shared" si="21"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AG55" s="5">
         <f t="shared" si="22"/>
-        <v>1892.8</v>
+        <v>946.4</v>
       </c>
       <c r="AH55" s="5">
         <f t="shared" si="23"/>
@@ -8374,8 +8378,8 @@
       <c r="B56" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="4">
-        <v>200</v>
+      <c r="C56" s="8">
+        <v>100</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -8398,14 +8402,14 @@
       </c>
       <c r="J56" s="2">
         <f t="shared" si="9"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K56" s="2">
         <v>0</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="10"/>
-        <v>1892.8</v>
+        <v>946.4</v>
       </c>
       <c r="M56" s="2">
         <v>750</v>
@@ -8431,7 +8435,7 @@
       </c>
       <c r="T56" s="2">
         <f t="shared" si="12"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="U56" s="2">
         <v>250</v>
@@ -8444,15 +8448,15 @@
       </c>
       <c r="X56" s="2">
         <f t="shared" si="13"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Y56" s="2">
         <f t="shared" si="18"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="Z56" s="2">
         <f t="shared" si="14"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AA56" s="2">
         <f t="shared" si="15"/>
@@ -8476,11 +8480,11 @@
       </c>
       <c r="AF56" s="5">
         <f t="shared" si="21"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AG56" s="5">
         <f t="shared" si="22"/>
-        <v>1892.8</v>
+        <v>946.4</v>
       </c>
       <c r="AH56" s="5">
         <f t="shared" si="23"/>
@@ -8511,8 +8515,8 @@
       <c r="B57" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="4">
-        <v>200</v>
+      <c r="C57" s="8">
+        <v>100</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -8535,14 +8539,14 @@
       </c>
       <c r="J57" s="2">
         <f t="shared" si="9"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K57" s="2">
         <v>0</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="10"/>
-        <v>1892.8</v>
+        <v>946.4</v>
       </c>
       <c r="M57" s="2">
         <v>750</v>
@@ -8568,7 +8572,7 @@
       </c>
       <c r="T57" s="2">
         <f t="shared" si="12"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="U57" s="2">
         <v>250</v>
@@ -8581,15 +8585,15 @@
       </c>
       <c r="X57" s="2">
         <f t="shared" si="13"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Y57" s="2">
         <f t="shared" si="18"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="Z57" s="2">
         <f t="shared" si="14"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AA57" s="2">
         <f t="shared" si="15"/>
@@ -8613,11 +8617,11 @@
       </c>
       <c r="AF57" s="5">
         <f t="shared" si="21"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AG57" s="5">
         <f t="shared" si="22"/>
-        <v>1892.8</v>
+        <v>946.4</v>
       </c>
       <c r="AH57" s="5">
         <f t="shared" si="23"/>
@@ -8648,8 +8652,8 @@
       <c r="B58" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C58" s="4">
-        <v>200</v>
+      <c r="C58" s="8">
+        <v>100</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -8672,14 +8676,14 @@
       </c>
       <c r="J58" s="2">
         <f t="shared" si="9"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K58" s="2">
         <v>0</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="10"/>
-        <v>1892.8</v>
+        <v>946.4</v>
       </c>
       <c r="M58" s="2">
         <v>750</v>
@@ -8705,7 +8709,7 @@
       </c>
       <c r="T58" s="2">
         <f t="shared" si="12"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="U58" s="2">
         <v>250</v>
@@ -8718,15 +8722,15 @@
       </c>
       <c r="X58" s="2">
         <f t="shared" si="13"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Y58" s="2">
         <f t="shared" si="18"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="Z58" s="2">
         <f t="shared" si="14"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AA58" s="2">
         <f t="shared" si="15"/>
@@ -8750,11 +8754,11 @@
       </c>
       <c r="AF58" s="5">
         <f t="shared" si="21"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AG58" s="5">
         <f t="shared" si="22"/>
-        <v>1892.8</v>
+        <v>946.4</v>
       </c>
       <c r="AH58" s="5">
         <f t="shared" si="23"/>
@@ -8785,8 +8789,8 @@
       <c r="B59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="4">
-        <v>200</v>
+      <c r="C59" s="8">
+        <v>100</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -8809,14 +8813,14 @@
       </c>
       <c r="J59" s="2">
         <f t="shared" si="9"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K59" s="2">
         <v>0</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="10"/>
-        <v>1892.8</v>
+        <v>946.4</v>
       </c>
       <c r="M59" s="2">
         <v>750</v>
@@ -8842,7 +8846,7 @@
       </c>
       <c r="T59" s="2">
         <f t="shared" si="12"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="U59" s="2">
         <v>250</v>
@@ -8855,15 +8859,15 @@
       </c>
       <c r="X59" s="2">
         <f t="shared" si="13"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Y59" s="2">
         <f t="shared" si="18"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="Z59" s="2">
         <f t="shared" si="14"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AA59" s="2">
         <f t="shared" si="15"/>
@@ -8887,11 +8891,11 @@
       </c>
       <c r="AF59" s="5">
         <f t="shared" si="21"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AG59" s="5">
         <f t="shared" si="22"/>
-        <v>1892.8</v>
+        <v>946.4</v>
       </c>
       <c r="AH59" s="5">
         <f t="shared" si="23"/>
@@ -8922,8 +8926,8 @@
       <c r="B60" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="4">
-        <v>200</v>
+      <c r="C60" s="8">
+        <v>100</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -8946,14 +8950,14 @@
       </c>
       <c r="J60" s="2">
         <f t="shared" si="9"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K60" s="2">
         <v>0</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="10"/>
-        <v>1892.8</v>
+        <v>946.4</v>
       </c>
       <c r="M60" s="2">
         <v>750</v>
@@ -8979,7 +8983,7 @@
       </c>
       <c r="T60" s="2">
         <f t="shared" si="12"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="U60" s="2">
         <v>250</v>
@@ -8992,15 +8996,15 @@
       </c>
       <c r="X60" s="2">
         <f t="shared" si="13"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Y60" s="2">
         <f t="shared" si="18"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="Z60" s="2">
         <f t="shared" si="14"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AA60" s="2">
         <f t="shared" si="15"/>
@@ -9024,11 +9028,11 @@
       </c>
       <c r="AF60" s="5">
         <f t="shared" si="21"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AG60" s="5">
         <f t="shared" si="22"/>
-        <v>1892.8</v>
+        <v>946.4</v>
       </c>
       <c r="AH60" s="5">
         <f t="shared" si="23"/>
@@ -9059,8 +9063,8 @@
       <c r="B61" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="4">
-        <v>200</v>
+      <c r="C61" s="8">
+        <v>100</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -9083,14 +9087,14 @@
       </c>
       <c r="J61" s="2">
         <f t="shared" si="9"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K61" s="2">
         <v>0</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="10"/>
-        <v>1892.8</v>
+        <v>946.4</v>
       </c>
       <c r="M61" s="2">
         <v>750</v>
@@ -9116,7 +9120,7 @@
       </c>
       <c r="T61" s="2">
         <f t="shared" si="12"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="U61" s="2">
         <v>250</v>
@@ -9129,15 +9133,15 @@
       </c>
       <c r="X61" s="2">
         <f t="shared" si="13"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Y61" s="2">
         <f t="shared" si="18"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="Z61" s="2">
         <f t="shared" si="14"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AA61" s="2">
         <f t="shared" si="15"/>
@@ -9161,11 +9165,11 @@
       </c>
       <c r="AF61" s="5">
         <f t="shared" si="21"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AG61" s="5">
         <f t="shared" si="22"/>
-        <v>1892.8</v>
+        <v>946.4</v>
       </c>
       <c r="AH61" s="5">
         <f t="shared" si="23"/>
@@ -9196,8 +9200,8 @@
       <c r="B62" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="4">
-        <v>200</v>
+      <c r="C62" s="8">
+        <v>100</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -9220,14 +9224,14 @@
       </c>
       <c r="J62" s="2">
         <f t="shared" si="9"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K62" s="2">
         <v>0</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="10"/>
-        <v>1892.8</v>
+        <v>946.4</v>
       </c>
       <c r="M62" s="2">
         <v>750</v>
@@ -9253,7 +9257,7 @@
       </c>
       <c r="T62" s="2">
         <f t="shared" si="12"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="U62" s="2">
         <v>250</v>
@@ -9266,15 +9270,15 @@
       </c>
       <c r="X62" s="2">
         <f t="shared" si="13"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Y62" s="2">
         <f t="shared" si="18"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="Z62" s="2">
         <f t="shared" si="14"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AA62" s="2">
         <f t="shared" si="15"/>
@@ -9298,11 +9302,11 @@
       </c>
       <c r="AF62" s="5">
         <f t="shared" si="21"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AG62" s="5">
         <f t="shared" si="22"/>
-        <v>1892.8</v>
+        <v>946.4</v>
       </c>
       <c r="AH62" s="5">
         <f t="shared" si="23"/>
@@ -9333,8 +9337,8 @@
       <c r="B63" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="4">
-        <v>200</v>
+      <c r="C63" s="8">
+        <v>100</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -9357,14 +9361,14 @@
       </c>
       <c r="J63" s="2">
         <f t="shared" si="9"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K63" s="2">
         <v>0</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="10"/>
-        <v>1892.8</v>
+        <v>946.4</v>
       </c>
       <c r="M63" s="2">
         <v>750</v>
@@ -9390,7 +9394,7 @@
       </c>
       <c r="T63" s="2">
         <f t="shared" si="12"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="U63" s="2">
         <v>250</v>
@@ -9403,15 +9407,15 @@
       </c>
       <c r="X63" s="2">
         <f t="shared" si="13"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Y63" s="2">
         <f t="shared" si="18"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="Z63" s="2">
         <f t="shared" si="14"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AA63" s="2">
         <f t="shared" si="15"/>
@@ -9435,11 +9439,11 @@
       </c>
       <c r="AF63" s="5">
         <f t="shared" si="21"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AG63" s="5">
         <f t="shared" si="22"/>
-        <v>1892.8</v>
+        <v>946.4</v>
       </c>
       <c r="AH63" s="5">
         <f t="shared" si="23"/>
@@ -9470,8 +9474,8 @@
       <c r="B64" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="4">
-        <v>200</v>
+      <c r="C64" s="8">
+        <v>100</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
@@ -9494,14 +9498,14 @@
       </c>
       <c r="J64" s="2">
         <f t="shared" si="9"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K64" s="2">
         <v>0</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="10"/>
-        <v>1892.8</v>
+        <v>946.4</v>
       </c>
       <c r="M64" s="2">
         <v>750</v>
@@ -9527,7 +9531,7 @@
       </c>
       <c r="T64" s="2">
         <f t="shared" si="12"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="U64" s="2">
         <v>250</v>
@@ -9540,15 +9544,15 @@
       </c>
       <c r="X64" s="2">
         <f t="shared" si="13"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Y64" s="2">
         <f t="shared" si="18"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="Z64" s="2">
         <f t="shared" si="14"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AA64" s="2">
         <f t="shared" si="15"/>
@@ -9572,11 +9576,11 @@
       </c>
       <c r="AF64" s="5">
         <f t="shared" si="21"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AG64" s="5">
         <f t="shared" si="22"/>
-        <v>1892.8</v>
+        <v>946.4</v>
       </c>
       <c r="AH64" s="5">
         <f t="shared" si="23"/>
@@ -9607,8 +9611,8 @@
       <c r="B65" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="4">
-        <v>200</v>
+      <c r="C65" s="8">
+        <v>100</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -9631,14 +9635,14 @@
       </c>
       <c r="J65" s="2">
         <f t="shared" si="9"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K65" s="2">
         <v>0</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="10"/>
-        <v>1892.8</v>
+        <v>946.4</v>
       </c>
       <c r="M65" s="2">
         <v>750</v>
@@ -9664,7 +9668,7 @@
       </c>
       <c r="T65" s="2">
         <f t="shared" si="12"/>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="U65" s="2">
         <v>250</v>
@@ -9677,15 +9681,15 @@
       </c>
       <c r="X65" s="2">
         <f t="shared" si="13"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Y65" s="2">
         <f t="shared" si="18"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="Z65" s="2">
         <f t="shared" si="14"/>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AA65" s="2">
         <f t="shared" si="15"/>
@@ -9709,11 +9713,11 @@
       </c>
       <c r="AF65" s="5">
         <f t="shared" si="21"/>
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AG65" s="5">
         <f t="shared" si="22"/>
-        <v>1892.8</v>
+        <v>946.4</v>
       </c>
       <c r="AH65" s="5">
         <f t="shared" si="23"/>
@@ -9744,8 +9748,8 @@
       <c r="B66" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="4">
-        <v>2500</v>
+      <c r="C66" s="8">
+        <v>1250</v>
       </c>
       <c r="D66" s="4">
         <v>0.8</v>
@@ -9768,14 +9772,14 @@
       </c>
       <c r="J66" s="2">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="K66" s="2">
         <v>0</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="10"/>
-        <v>20280</v>
+        <v>10140</v>
       </c>
       <c r="M66" s="2">
         <v>750</v>
@@ -9801,7 +9805,7 @@
       </c>
       <c r="T66" s="2">
         <f t="shared" si="12"/>
-        <v>450</v>
+        <v>225</v>
       </c>
       <c r="U66" s="2">
         <v>250</v>
@@ -9814,15 +9818,15 @@
       </c>
       <c r="X66" s="2">
         <f t="shared" si="13"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Y66" s="2">
         <f t="shared" si="18"/>
-        <v>750</v>
+        <v>375</v>
       </c>
       <c r="Z66" s="2">
         <f t="shared" si="14"/>
-        <v>750</v>
+        <v>375</v>
       </c>
       <c r="AA66" s="2">
         <f t="shared" si="15"/>
@@ -9846,11 +9850,11 @@
       </c>
       <c r="AF66" s="5">
         <f t="shared" si="21"/>
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AG66" s="5">
         <f t="shared" si="22"/>
-        <v>20280</v>
+        <v>10140</v>
       </c>
       <c r="AH66" s="5">
         <f t="shared" si="23"/>
@@ -9881,8 +9885,8 @@
       <c r="B67" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="4">
-        <v>2000</v>
+      <c r="C67" s="8">
+        <v>1000</v>
       </c>
       <c r="D67" s="4">
         <v>0.8</v>
@@ -9905,14 +9909,14 @@
       </c>
       <c r="J67" s="2">
         <f t="shared" ref="J67:J70" si="28">C67*G67/1000</f>
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="K67" s="2">
         <v>0</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" ref="L67:L70" si="29">C67*G67*(S67*Q67 + W67*V67)*0.08</f>
-        <v>16224</v>
+        <v>8112</v>
       </c>
       <c r="M67" s="2">
         <v>750</v>
@@ -9938,7 +9942,7 @@
       </c>
       <c r="T67" s="2">
         <f t="shared" ref="T67:T70" si="31">C67*G67*S67</f>
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="U67" s="2">
         <v>250</v>
@@ -9951,15 +9955,15 @@
       </c>
       <c r="X67" s="2">
         <f t="shared" ref="X67:X70" si="32">C67*G67*W67</f>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="Y67" s="2">
         <f t="shared" si="18"/>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Z67" s="2">
         <f t="shared" ref="Z67:Z70" si="33">Y67</f>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="AA67" s="2">
         <f t="shared" ref="AA67:AA70" si="34">Z67-Y67</f>
@@ -9983,11 +9987,11 @@
       </c>
       <c r="AF67" s="5">
         <f t="shared" si="21"/>
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AG67" s="5">
         <f t="shared" si="22"/>
-        <v>16224</v>
+        <v>8112</v>
       </c>
       <c r="AH67" s="5">
         <f t="shared" si="23"/>
@@ -10018,8 +10022,8 @@
       <c r="B68" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C68" s="4">
-        <v>800</v>
+      <c r="C68" s="8">
+        <v>400</v>
       </c>
       <c r="D68" s="4">
         <v>0.8</v>
@@ -10042,14 +10046,14 @@
       </c>
       <c r="J68" s="2">
         <f t="shared" si="28"/>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="K68" s="2">
         <v>0</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="29"/>
-        <v>10816</v>
+        <v>5408</v>
       </c>
       <c r="M68" s="2">
         <v>750</v>
@@ -10075,7 +10079,7 @@
       </c>
       <c r="T68" s="2">
         <f t="shared" si="31"/>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="U68" s="2">
         <v>250</v>
@@ -10088,15 +10092,15 @@
       </c>
       <c r="X68" s="2">
         <f t="shared" si="32"/>
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="Y68" s="2">
         <f t="shared" si="18"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Z68" s="2">
         <f t="shared" si="33"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AA68" s="2">
         <f t="shared" si="34"/>
@@ -10120,11 +10124,11 @@
       </c>
       <c r="AF68" s="5">
         <f t="shared" si="21"/>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AG68" s="5">
         <f t="shared" si="22"/>
-        <v>10816</v>
+        <v>5408</v>
       </c>
       <c r="AH68" s="5">
         <f t="shared" si="23"/>
@@ -10155,8 +10159,8 @@
       <c r="B69" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="4">
-        <v>500</v>
+      <c r="C69" s="8">
+        <v>250</v>
       </c>
       <c r="D69" s="4">
         <v>0.8</v>
@@ -10179,14 +10183,14 @@
       </c>
       <c r="J69" s="2">
         <f t="shared" si="28"/>
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="K69" s="2">
         <v>0</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" si="29"/>
-        <v>6760</v>
+        <v>3380</v>
       </c>
       <c r="M69" s="2">
         <v>750</v>
@@ -10212,7 +10216,7 @@
       </c>
       <c r="T69" s="2">
         <f t="shared" si="31"/>
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="U69" s="2">
         <v>250</v>
@@ -10225,15 +10229,15 @@
       </c>
       <c r="X69" s="2">
         <f t="shared" si="32"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Y69" s="2">
         <f t="shared" si="18"/>
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="Z69" s="2">
         <f t="shared" si="33"/>
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="AA69" s="2">
         <f t="shared" si="34"/>
@@ -10257,11 +10261,11 @@
       </c>
       <c r="AF69" s="5">
         <f t="shared" si="21"/>
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="AG69" s="5">
         <f t="shared" si="22"/>
-        <v>6760</v>
+        <v>3380</v>
       </c>
       <c r="AH69" s="5">
         <f t="shared" si="23"/>
@@ -10292,8 +10296,8 @@
       <c r="B70" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C70" s="4">
-        <v>300</v>
+      <c r="C70" s="8">
+        <v>150</v>
       </c>
       <c r="D70" s="4">
         <v>0.8</v>
@@ -10316,14 +10320,14 @@
       </c>
       <c r="J70" s="2">
         <f t="shared" si="28"/>
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="K70" s="2">
         <v>0</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="29"/>
-        <v>4867.2</v>
+        <v>2433.6</v>
       </c>
       <c r="M70" s="2">
         <v>750</v>
@@ -10349,7 +10353,7 @@
       </c>
       <c r="T70" s="2">
         <f t="shared" si="31"/>
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="U70" s="2">
         <v>250</v>
@@ -10362,15 +10366,15 @@
       </c>
       <c r="X70" s="2">
         <f t="shared" si="32"/>
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="Y70" s="2">
         <f t="shared" si="18"/>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Z70" s="2">
         <f t="shared" si="33"/>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="AA70" s="2">
         <f t="shared" si="34"/>
@@ -10394,11 +10398,11 @@
       </c>
       <c r="AF70" s="5">
         <f t="shared" si="21"/>
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="AG70" s="5">
         <f t="shared" si="22"/>
-        <v>4867.2</v>
+        <v>2433.6</v>
       </c>
       <c r="AH70" s="5">
         <f t="shared" si="23"/>
